--- a/Master Data Analysis in Excel/4.5Algebra-with-GaussiansCopy.xlsx
+++ b/Master Data Analysis in Excel/4.5Algebra-with-GaussiansCopy.xlsx
@@ -63,6 +63,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Independent</t>
@@ -72,6 +73,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Gaussians</t>
@@ -143,6 +145,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>weighted</t>
@@ -152,6 +155,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (fractional) combination of any 2 </t>
@@ -162,6 +166,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">independent </t>
@@ -171,6 +176,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Gaussians</t>
@@ -186,6 +192,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>weighted</t>
@@ -195,6 +202,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (fractional) combination of any 2 D</t>
@@ -205,6 +213,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">ependent </t>
@@ -214,6 +223,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Gaussians - include a Covariance term</t>
@@ -262,6 +272,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,18 +280,21 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF008000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,17 +302,20 @@
       <sz val="16"/>
       <color rgb="FF008000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,6 +327,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -331,6 +349,7 @@
       <i/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,6 +357,7 @@
       <sz val="16"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -502,7 +522,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
@@ -556,6 +576,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -901,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1465,25 +1487,24 @@
       <c r="B22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="D22" s="15">
-        <f>SQRT(E22)</f>
-        <v>0.2</v>
+      <c r="C22" s="53">
+        <v>0.09</v>
+      </c>
+      <c r="D22" s="53">
+        <v>0.13</v>
       </c>
       <c r="E22" s="15">
         <v>0.04</v>
       </c>
       <c r="F22" s="52">
-        <v>0.03</v>
+        <v>-7.1500000000000001E-3</v>
       </c>
       <c r="G22" s="15">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="H22" s="37">
         <f>E22*G22^2</f>
-        <v>1.6900000000000002E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="I22" s="38"/>
       <c r="J22" s="11"/>
@@ -1527,12 +1548,11 @@
       <c r="B24" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="40">
-        <v>0.15</v>
-      </c>
-      <c r="D24" s="40">
-        <f>SQRT(E24)</f>
-        <v>0.3</v>
+      <c r="C24" s="54">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D24" s="54">
+        <v>0.25</v>
       </c>
       <c r="E24" s="40">
         <v>0.09</v>
@@ -1540,11 +1560,11 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40">
         <f>1-G22</f>
-        <v>0.35</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="H24" s="37">
         <f>E24*G24^2</f>
-        <v>1.1024999999999998E-2</v>
+        <v>8.1000000000000013E-3</v>
       </c>
       <c r="I24" s="38"/>
       <c r="J24" s="11"/>
@@ -1578,15 +1598,15 @@
       </c>
       <c r="C26" s="18">
         <f>(C22*G22)+ (C24*G24)</f>
-        <v>0.11749999999999999</v>
+        <v>0.10500000000000001</v>
       </c>
       <c r="D26" s="30">
         <f>SQRT(E26)</f>
-        <v>0.20389948504103683</v>
+        <v>0.15715279189374906</v>
       </c>
       <c r="E26" s="30">
         <f>H22 +H24 + (2*G22*G24*F22)</f>
-        <v>4.1575000000000001E-2</v>
+        <v>2.4697000000000004E-2</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
@@ -1681,7 +1701,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="47">
         <f>D22*D24</f>
-        <v>0.06</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
